--- a/Documents/UsbProtocol_InterfacesAndReportIdList.xlsx
+++ b/Documents/UsbProtocol_InterfacesAndReportIdList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1"/>
@@ -264,55 +264,91 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>EgsDeviceSettings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HID Report Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common crypt key used by Windows certification(?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HID (Exvision Gesture (Vendor Specific))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x1C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EgsDeviceFirmwareUpdate (Fast Transfer)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>DFU</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EgsDeviceSettings</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HID Report Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Common crypt key used by Windows certification(?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HID (Exvision Gesture (Vendor Specific))</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x0D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exvision Gesture (Mouse / Single-Touch Mode)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ExvisionGestureOnMouseOrSingleTouchMode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ExvisionGesture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exvision Gesture (Multi-Touch Mode)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x1C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EgsDeviceFirmwareUpdate (Fast Transfer)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DFU</t>
+    <t>Windows and Multitouch on Android</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singletouch on Android (multitouch or singletouch is detected by host application on Android automatically)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HID (OS Singletouch, Keyboard, Mouse, Media Keyboard)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Touch information received by host applications on Singletouch mode Android</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exvision Gesture (Multitouch Mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exvision Gesture (Mouse / Singletouch Mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Information for host OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EgsGesture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EgsGestureOnMouseOrSingleTouchMode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EgsDeviceQualityAssurance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device Quality Assurance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device Firmware Update (DFU)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For various tests of device quality assurance</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -709,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -722,341 +758,456 @@
     <col min="3" max="3" width="48.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="80.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1">
-        <v>64</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="1">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1">
+        <v>256</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D29" s="1">
         <v>256</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
